--- a/biology/Médecine/Hypernatrémie/Hypernatrémie.xlsx
+++ b/biology/Médecine/Hypernatrémie/Hypernatrémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypernatr%C3%A9mie</t>
+          <t>Hypernatrémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypernatrémie est l'augmentation du taux de sodium (Na+) dans le sang. Elle découle d'une insuffisance d'apport hydrique dans un organisme impliquant alors une déshydratation intracellulaire ; il s'agit de ce qui se passe lorsqu'un organisme ne boit pas assez d'eau. Elle se corrige par l'apport d'eau ou par une perfusion intraveineuse de glucose 5 %. Cela peut aussi être dû à une perte excessive d'eau au niveau rénal ou cutané à la suite d'une brûlure étendue ou lors d'un effort physique important, si les apports en eau ne compensent pas cet excès de perte.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypernatr%C3%A9mie</t>
+          <t>Hypernatrémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hypernatrémie, contrairement à l'hyponatrémie, est une augmentation de la natrémie supérieure à 145 mmol L−1[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypernatrémie, contrairement à l'hyponatrémie, est une augmentation de la natrémie supérieure à 145 mmol L−1.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypernatr%C3%A9mie</t>
+          <t>Hypernatrémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Souvent iatrogène, en particulier chez la personne âgée ou le nourrisson par carence en eau.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypernatr%C3%A9mie</t>
+          <t>Hypernatrémie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premiers symptômes de l'hypernatrémie devraient être la soif et la faiblesse musculaire[1].
-Les signes cliniques sont principalement des troubles neuropsychiques : augmentation du tonus musculaire, des réflexes ostéotendineux, céphalées, confusion, agitation, voire troubles de la conscience et convulsions. En effet l'hypernatrémie entraîne une déshydratation intracellulaire, responsable d'une contraction du volume cérébral[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers symptômes de l'hypernatrémie devraient être la soif et la faiblesse musculaire.
+Les signes cliniques sont principalement des troubles neuropsychiques : augmentation du tonus musculaire, des réflexes ostéotendineux, céphalées, confusion, agitation, voire troubles de la conscience et convulsions. En effet l'hypernatrémie entraîne une déshydratation intracellulaire, responsable d'une contraction du volume cérébral.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypernatr%C3%A9mie</t>
+          <t>Hypernatrémie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,17 +623,159 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La soif et la capacité rénale à concentrer les urines devraient protéger tout sujet normal de l'hypernatrémie.
-Défaut d'apport en eau libre
-Les nourrissons[2], certaines personnes âgées et malades psychiatriques, les patients en réanimation, dépendant totalement de l'aide de leur entourage pour les apports en eau, sont à risque de développer une hypernatrémie par défaut d'apport hydrique[1].
-Perte d'eau libre
-C'est le cas, entre autres, d'un diabète insipide.
-Apports de sodium excessifs
-Des cas de décès consécutifs à une trop grande absorption de sel en cas de noyade en mer ou d'une apport excessif en sel ont été rapportés[3] dont le cas d'une femme ayant absorbé 3 cuillers à soupe de sel[4] ou plusieurs cas d'utilisation d'une solution saline comme émétique[5]. Il a aussi été fait état d'un cas d'empoisonnement volontaire[6]. Les quantités létales sont faibles, à partir d'une cuiller à café pour un enfant, toutefois les empoisonnements de ce type constituent une cause extrêmement rare d'hypernatrémie[5].
-Médicaments
-La prise de certains médicaments peut entraîner une augmentation des taux de sodium dans le sang, ce qui peut causer une hypernatrémie. Parmi ces médicaments, on peut citer les anti-inflammatoires non stéroïdiens tels que l'ibuprofène ou le naproxène, les stéroïdes, les laxatifs ou encore le lithium, qui est utilisé chez les personnes souffrant de troubles bipolaires[7].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypernatrémie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypernatr%C3%A9mie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Défaut d'apport en eau libre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nourrissons, certaines personnes âgées et malades psychiatriques, les patients en réanimation, dépendant totalement de l'aide de leur entourage pour les apports en eau, sont à risque de développer une hypernatrémie par défaut d'apport hydrique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypernatrémie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypernatr%C3%A9mie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Perte d'eau libre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le cas, entre autres, d'un diabète insipide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hypernatrémie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypernatr%C3%A9mie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Apports de sodium excessifs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des cas de décès consécutifs à une trop grande absorption de sel en cas de noyade en mer ou d'une apport excessif en sel ont été rapportés dont le cas d'une femme ayant absorbé 3 cuillers à soupe de sel ou plusieurs cas d'utilisation d'une solution saline comme émétique. Il a aussi été fait état d'un cas d'empoisonnement volontaire. Les quantités létales sont faibles, à partir d'une cuiller à café pour un enfant, toutefois les empoisonnements de ce type constituent une cause extrêmement rare d'hypernatrémie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hypernatrémie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypernatr%C3%A9mie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Médicaments</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise de certains médicaments peut entraîner une augmentation des taux de sodium dans le sang, ce qui peut causer une hypernatrémie. Parmi ces médicaments, on peut citer les anti-inflammatoires non stéroïdiens tels que l'ibuprofène ou le naproxène, les stéroïdes, les laxatifs ou encore le lithium, qui est utilisé chez les personnes souffrant de troubles bipolaires.
 </t>
         </is>
       </c>
